--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C++ Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55187E24-3313-48A7-89FE-F2C7CD36DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D4B3B5-6E2E-4A88-96B6-CDD2F35696C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milan Đurica" sheetId="45" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="503">
   <si>
     <t>Datum</t>
   </si>
@@ -1570,6 +1570,9 @@
   </si>
   <si>
     <t>odradili ispitni do pola juli</t>
+  </si>
+  <si>
+    <t>Cet u 3</t>
   </si>
 </sst>
 </file>
@@ -10464,8 +10467,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10619,12 +10622,22 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="125"/>
+      <c r="A8" s="10">
+        <v>45645</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="76">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F8" s="135"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -14586,7 +14599,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C++ Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D4B3B5-6E2E-4A88-96B6-CDD2F35696C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146831E6-A74E-4638-9F67-8CA67E60E1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milan Đurica" sheetId="45" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="508">
   <si>
     <t>Datum</t>
   </si>
@@ -1573,6 +1573,21 @@
   </si>
   <si>
     <t>Cet u 3</t>
+  </si>
+  <si>
+    <t>Pet u 5:05</t>
+  </si>
+  <si>
+    <t>top samo nizovi trebaju jos da se slegnu</t>
+  </si>
+  <si>
+    <t>Pet u 3:30</t>
+  </si>
+  <si>
+    <t>odradili juni do pametnih</t>
+  </si>
+  <si>
+    <t>Cet u 5:10</t>
   </si>
 </sst>
 </file>
@@ -2738,7 +2753,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2812,12 +2827,22 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="122"/>
+      <c r="A4" s="43">
+        <v>45652</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="E4" s="89">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F4" s="128"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -10467,8 +10492,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10642,12 +10667,22 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="118"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="123"/>
+      <c r="A9" s="23">
+        <v>45293</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="77">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F9" s="129"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -13974,7 +14009,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14182,22 +14217,42 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5">
+        <v>45646</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="70"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="29">
+        <v>45653</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
@@ -14599,7 +14654,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -14910,12 +14965,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE7C655-F809-4D94-B203-B7D0462AEF49}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14964,7 +15019,7 @@
       <c r="E2" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -14984,7 +15039,7 @@
       <c r="E3" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="127">
+      <c r="F3" s="102">
         <v>0.11805555555555555</v>
       </c>
       <c r="G3" s="1"/>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C++ Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146831E6-A74E-4638-9F67-8CA67E60E1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D011C-0C79-436B-BBFD-F82A264694F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milan Đurica" sheetId="45" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="508">
   <si>
     <t>Datum</t>
   </si>
@@ -14008,8 +14008,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14257,12 +14257,22 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="10">
+        <v>45693</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -14654,7 +14664,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
